--- a/20241216_네이버가격비교_REF/Data/Input/네이버 가격비교.xlsx
+++ b/20241216_네이버가격비교_REF/Data/Input/네이버 가격비교.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jupiter\Downloads\3차 종합 평가 문제\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPath\20241216_3차종합평가\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06903B2A-00C4-492F-8786-9E1EDE6634EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0F9007-ECC9-4EAE-8C1E-650CD925D6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="1725" windowWidth="21600" windowHeight="13755" xr2:uid="{9A9D35A2-7D1C-4AB7-AE03-C11A40EA2FCF}"/>
+    <workbookView xWindow="3150" yWindow="1245" windowWidth="23325" windowHeight="14175" xr2:uid="{9A9D35A2-7D1C-4AB7-AE03-C11A40EA2FCF}"/>
   </bookViews>
   <sheets>
     <sheet name="검색" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>네이버 최저가 명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -45,10 +45,6 @@
   </si>
   <si>
     <t>네이버 최저가 링크</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WPVW17DDEW</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -522,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA7C6F94-3591-4E00-BD29-CF6EAC3FCADE}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -536,7 +532,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -573,7 +569,7 @@
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1"/>
@@ -581,7 +577,7 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1"/>
@@ -635,14 +631,6 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -652,15 +640,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101000E6B2CFC3EA1A347B8DBE3DC96588C49" ma:contentTypeVersion="16" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="68efe090f79193fcd6eea2cc2b60c61d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="578960f7-7126-4e9a-87f0-be8761748ea8" xmlns:ns3="e68fe36a-05bb-443d-bff8-3bde19c9dd8b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ec1704d3b3c3d704926a96edfb3812bb" ns2:_="" ns3:_="">
     <xsd:import namespace="578960f7-7126-4e9a-87f0-be8761748ea8"/>
@@ -895,6 +874,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -907,14 +895,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D774916-64E0-4514-B854-5C27E48336B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E429244B-172E-4287-AD4D-7CC956AFF5C6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -933,6 +913,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D774916-64E0-4514-B854-5C27E48336B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{228172E1-41FA-48D6-9AD3-9346D1E62F72}">
   <ds:schemaRefs>
